--- a/streamlit_wec_full_app_repo/bluechoice_data.xlsx
+++ b/streamlit_wec_full_app_repo/bluechoice_data.xlsx
@@ -3520,10 +3520,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>WEC Design</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Closeness to Ideal</t>
         </is>
@@ -3539,7 +3544,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5436710004010832</v>
+        <v>0.6769679823150073</v>
       </c>
     </row>
     <row r="3">
@@ -3548,11 +3553,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Point Absorber</t>
+          <t>Oscillating Water Column</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.4922074191333694</v>
+        <v>0.3505119622780461</v>
       </c>
     </row>
     <row r="4">
@@ -3561,11 +3566,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oscillating Water Column</t>
+          <t>Point Absorber</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4563289995989168</v>
+        <v>0.2044203284084603</v>
       </c>
     </row>
   </sheetData>
@@ -5979,19 +5984,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2084289779797868</v>
+        <v>0.2211016960397099</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2107868991058177</v>
+        <v>0.2047978497170779</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2105164810687376</v>
+        <v>0.1843855192755456</v>
       </c>
       <c r="E2" t="n">
-        <v>0.175395587587527</v>
+        <v>0.1896748365578238</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1948720542581307</v>
+        <v>0.2000400984098427</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -6004,19 +6009,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2231131126102452</v>
+        <v>0.2343673884268225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2258193840392323</v>
+        <v>0.2172606660340768</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1848456685710857</v>
+        <v>0.1603201453220851</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2904736781169697</v>
+        <v>0.3110541138651856</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07574815666246695</v>
+        <v>0.07699768635183006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -6029,19 +6034,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1476229207721817</v>
+        <v>0.1587790613253449</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1858698846550256</v>
+        <v>0.1831033408056535</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2723346548855584</v>
+        <v>0.2418516638648966</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1079095878087588</v>
+        <v>0.1183195610630221</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2862629518784754</v>
+        <v>0.2979463729410828</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>

--- a/streamlit_wec_full_app_repo/bluechoice_data.xlsx
+++ b/streamlit_wec_full_app_repo/bluechoice_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4660" yWindow="500" windowWidth="40140" windowHeight="23000" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Themes Tab" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,25 +22,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -66,42 +54,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -144,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -156,12 +114,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -746,7 +698,7 @@
   </sheetPr>
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
@@ -3544,7 +3496,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6769679823150073</v>
+        <v>0.7036907056248767</v>
       </c>
     </row>
     <row r="3">
@@ -3553,11 +3505,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oscillating Water Column</t>
+          <t>Point Absorber</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3505119622780461</v>
+        <v>0.4116939958970541</v>
       </c>
     </row>
     <row r="4">
@@ -3566,11 +3518,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Point Absorber</t>
+          <t>Oscillating Water Column</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2044203284084603</v>
+        <v>0.2991383665669846</v>
       </c>
     </row>
   </sheetData>
@@ -3584,7 +3536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3593,42 +3545,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Theme</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Subcriterion</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Expertise Level</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>PCM_Point Absorber_vs_Oscillating Water Column</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>PCM_Point Absorber_vs_Oscillating Surge Flap</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>PCM_Oscillating Water Column_vs_Oscillating Surge Flap</t>
         </is>
@@ -3656,7 +3608,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>0.2</v>
@@ -3690,7 +3642,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -3928,7 +3880,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -3962,7 +3914,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>0.2</v>
@@ -3996,7 +3948,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -4030,7 +3982,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -4064,7 +4016,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -4098,7 +4050,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>0.2</v>
@@ -4132,7 +4084,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>0.2</v>
@@ -5672,6 +5624,1536 @@
       </c>
       <c r="H61" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:29:47</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Danesh Tafti</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Functional Efficiency</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Electricity reliability and security</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>4</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:29:47</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Danesh Tafti</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Functional Efficiency</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Electricity affordability</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:29:47</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Danesh Tafti</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Habitat of marine animals</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>3</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:29:47</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Danesh Tafti</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Birds</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:29:47</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Danesh Tafti</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>3</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:29:47</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Danesh Tafti</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Noise</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>3</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:29:47</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Danesh Tafti</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sense of Place</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Personal identity / connection to place</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:29:47</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Danesh Tafti</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Sense of Place</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Ocean / landscape view</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:29:47</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Danesh Tafti</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Community benefits</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:29:47</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Danesh Tafti</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Job opportunities</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:29:47</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Danesh Tafti</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Tax revenues</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:29:47</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Danesh Tafti</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Indirect economic effects</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:29:47</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Danesh Tafti</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Tourism</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:29:47</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Danesh Tafti</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Marine Space Utilization</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Recreational fishing</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-08-11 13:29:47</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Danesh Tafti</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Marine Space Utilization</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Recreational boating</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>3</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:24:27</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Eric Wade</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Functional Efficiency</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Electricity reliability and security</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>3</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:24:27</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Eric Wade</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Functional Efficiency</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Electricity affordability</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:24:27</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Eric Wade</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Habitat of marine animals</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>3</v>
+      </c>
+      <c r="F79" t="n">
+        <v>5</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:24:27</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Eric Wade</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Birds</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>7</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:24:27</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Eric Wade</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:24:27</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Eric Wade</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Noise</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>3</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:24:27</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Eric Wade</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Sense of Place</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Personal identity / connection to place</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>5</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:24:27</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Eric Wade</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sense of Place</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Ocean / landscape view</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>5</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:24:27</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Eric Wade</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Community benefits</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:24:27</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Eric Wade</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Job opportunities</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:24:27</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Eric Wade</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Tax revenues</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:24:27</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Eric Wade</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Indirect economic effects</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3</v>
+      </c>
+      <c r="G88" t="n">
+        <v>3</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:24:27</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Eric Wade</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Tourism</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:24:27</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Eric Wade</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Marine Space Utilization</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Recreational fishing</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>3</v>
+      </c>
+      <c r="F90" t="n">
+        <v>7</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-08-21 13:24:27</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Eric Wade</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Marine Space Utilization</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Recreational boating</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:18:30</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Lindsay Dubbs</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Functional Efficiency</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Electricity reliability and security</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>3</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:18:30</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Lindsay Dubbs</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Functional Efficiency</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Electricity affordability</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3</v>
+      </c>
+      <c r="G93" t="n">
+        <v>3</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:18:30</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Lindsay Dubbs</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Habitat of marine animals</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>5</v>
+      </c>
+      <c r="F94" t="n">
+        <v>5</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:18:30</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Lindsay Dubbs</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Birds</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" t="n">
+        <v>5</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:18:30</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Lindsay Dubbs</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Health</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:18:30</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Lindsay Dubbs</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Noise</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>9</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:18:30</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Lindsay Dubbs</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Sense of Place</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Personal identity / connection to place</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>9</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:18:30</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Lindsay Dubbs</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Sense of Place</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Ocean / landscape view</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>2</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:18:30</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Lindsay Dubbs</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Community benefits</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:18:30</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Lindsay Dubbs</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Job opportunities</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:18:30</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Lindsay Dubbs</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Tax revenues</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:18:30</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Lindsay Dubbs</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Indirect economic effects</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>3</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:18:30</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Lindsay Dubbs</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Tourism</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:18:30</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Lindsay Dubbs</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Marine Space Utilization</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Recreational fishing</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>5</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" t="n">
+        <v>3</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:18:30</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Lindsay Dubbs</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Marine Space Utilization</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Recreational boating</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>5</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5694,236 +7176,236 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Community Prosperity - Community benefits</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Community Prosperity - Indirect economic effects</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Community Prosperity - Job opportunities</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Community Prosperity - Tax revenues</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Community Prosperity - Tourism</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Environmental Sustainability - Birds</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>Environmental Sustainability - Habitat of marine animals</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>Environmental Sustainability - Health</t>
         </is>
       </c>
-      <c r="J1" s="6" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>Environmental Sustainability - Noise</t>
         </is>
       </c>
-      <c r="K1" s="6" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>Functional Efficiency - Electricity affordability</t>
         </is>
       </c>
-      <c r="L1" s="6" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>Functional Efficiency - Electricity reliability and security</t>
         </is>
       </c>
-      <c r="M1" s="6" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>Marine Space Utilization - Recreational boating</t>
         </is>
       </c>
-      <c r="N1" s="6" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>Marine Space Utilization - Recreational fishing</t>
         </is>
       </c>
-      <c r="O1" s="6" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>Sense of Place - Ocean / landscape view</t>
         </is>
       </c>
-      <c r="P1" s="6" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>Sense of Place - Personal identity / connection to place</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Point Absorber</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3196881807953627</v>
+        <v>0.3268073908151735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2954457565529385</v>
+        <v>0.3731842024093764</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2801592980605772</v>
+        <v>0.2630893655427024</v>
       </c>
       <c r="E2" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2502164502164502</v>
+        <v>0.351311563215734</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1933270194890335</v>
+        <v>0.2842170780538263</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1436378462576907</v>
+        <v>0.3500084906917815</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3514846731176363</v>
+        <v>0.3378346534692429</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4073860002622186</v>
+        <v>0.4613013055024499</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2893528500407292</v>
+        <v>0.3462984236653858</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2039536109440574</v>
+        <v>0.2374766570035555</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1545948995419135</v>
+        <v>0.2211558870408934</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3528626422858707</v>
+        <v>0.4528727682724318</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2381080230537428</v>
+        <v>0.2489642420643835</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2970808214353899</v>
+        <v>0.3483188533069919</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Oscillating Water Column</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2917689879783177</v>
+        <v>0.3134547333809345</v>
       </c>
       <c r="C3" t="n">
-        <v>0.437027679711168</v>
+        <v>0.3539407743546166</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4969004688702638</v>
+        <v>0.4995552504682171</v>
       </c>
       <c r="E3" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3437229437229438</v>
+        <v>0.2803242040527506</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2926205344279149</v>
+        <v>0.2007238919066411</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5879237994216714</v>
+        <v>0.3587995990356166</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4440255329038629</v>
+        <v>0.4010236734819326</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08652568443466058</v>
+        <v>0.08511180477239944</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1111071727680665</v>
+        <v>0.1751051375539961</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4095278965231745</v>
+        <v>0.4334023846332276</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6461790106088856</v>
+        <v>0.5754178501587025</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3639602940940618</v>
+        <v>0.2721200199021801</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09098504486300674</v>
+        <v>0.089131187867961</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1590627310326154</v>
+        <v>0.187013416796607</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Oscillating Surge Flap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3885428312263194</v>
+        <v>0.3597378758038919</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2675265637358936</v>
+        <v>0.272875023236007</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2229402330691589</v>
+        <v>0.2373553839890807</v>
       </c>
       <c r="E4" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>0.406060606060606</v>
+        <v>0.3683642327315155</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5140524460830515</v>
+        <v>0.5150590300395325</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2684383543206379</v>
+        <v>0.2911919102726018</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2044897939785006</v>
+        <v>0.2611416730488243</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5060883153031207</v>
+        <v>0.4535868897251505</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5995399771912043</v>
+        <v>0.4785964387806183</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3865184925327682</v>
+        <v>0.329120958363217</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1992260898492011</v>
+        <v>0.2034262628004043</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2831770636200676</v>
+        <v>0.2750072118253882</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6709069320832506</v>
+        <v>0.6619045700676556</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5438564475319946</v>
+        <v>0.4646677298964011</v>
       </c>
     </row>
   </sheetData>
@@ -5946,107 +7428,107 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Community Prosperity</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Environmental Sustainability</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Functional Efficiency</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Marine Space Utilization</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Sense of Place</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Total Score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>Point Absorber</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2211016960397099</v>
+        <v>0.20399855236885</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2047978497170779</v>
+        <v>0.2218236696748613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1843855192755456</v>
+        <v>0.1806873257787938</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1896748365578238</v>
+        <v>0.2086221890240418</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2000400984098427</v>
+        <v>0.184868263153453</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Oscillating Water Column</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2343673884268225</v>
+        <v>0.2400337840978194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2172606660340768</v>
+        <v>0.176199251594058</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1603201453220851</v>
+        <v>0.2050736868467214</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3110541138651856</v>
+        <v>0.2856295270284697</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07699768635183006</v>
+        <v>0.09306375043293148</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Oscillating Surge Flap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1587790613253449</v>
+        <v>0.1653567344365474</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1831033408056535</v>
+        <v>0.2000299585947696</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2418516638648966</v>
+        <v>0.2124521430816539</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1183195610630221</v>
+        <v>0.125841312030266</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2979463729410828</v>
+        <v>0.2963198518567632</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>

--- a/streamlit_wec_full_app_repo/bluechoice_data.xlsx
+++ b/streamlit_wec_full_app_repo/bluechoice_data.xlsx
@@ -13,6 +13,7 @@
     <sheet name="AHP Decision Matrix" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Final AHP Theme Weights" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Expert Tab" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="PIS_NIS_Contrib" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3492,7 +3493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oscillating Surge Flap</t>
+          <t>Oscillating Wave Surge Flap</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3522,7 +3523,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2991383665669846</v>
+        <v>0.2991383665669847</v>
       </c>
     </row>
   </sheetData>
@@ -7359,7 +7360,7 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Oscillating Surge Flap</t>
+          <t>Oscillating Wave Surge Flap</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -7512,7 +7513,7 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Oscillating Surge Flap</t>
+          <t>Oscillating Wave Surge Flap</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -7578,4 +7579,415 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>WEC Design</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Criterion</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>PIS_sq</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>PIS_pct</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>NIS_sq</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>NIS_pct</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Point Absorber</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7.474301969634494e-05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.008314372971867462</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.448770941842486e-05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.005562429511171707</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Point Absorber</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5.926694603582828e-05</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.006592822931791652</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.001160442045944265</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2635966056305831</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Point Absorber</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Functional Efficiency</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.001908216715349371</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2122689924359903</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Point Absorber</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marine Space Utilization</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0007310476447187828</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08132134349255424</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0009290025229905528</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2110246802401013</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Point Absorber</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sense of Place</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.006216341601852383</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6915024681677963</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.002288408348030103</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5198162846181439</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Oscillating Water Column</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0001847943977453212</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.05255327944320408</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Oscillating Water Column</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.001744212018147474</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.09036285804975018</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Oscillating Water Column</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Functional Efficiency</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001510000492715518</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.07822899897411927</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.327498152521623e-05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.006619121699868039</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Oscillating Water Column</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Marine Space Utilization</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.003308255381109718</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9408275988569279</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Oscillating Water Column</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sense of Place</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01604809881252587</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8314081429761305</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Oscillating Wave Surge Flap</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Community Prosperity</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0001847943977453212</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.05290345384253114</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Oscillating Wave Surge Flap</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.001744212018147474</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.08853631021163225</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Oscillating Wave Surge Flap</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Functional Efficiency</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.001908216715349371</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0968611988126488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Oscillating Wave Surge Flap</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Marine Space Utilization</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.003308255381109718</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9470965461574689</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Oscillating Wave Surge Flap</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sense of Place</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01604809881252587</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8146024909757189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/streamlit_wec_full_app_repo/bluechoice_data.xlsx
+++ b/streamlit_wec_full_app_repo/bluechoice_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4660" yWindow="500" windowWidth="40140" windowHeight="23000" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4660" yWindow="620" windowWidth="40140" windowHeight="22780" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Themes Tab" sheetId="1" state="visible" r:id="rId1"/>
@@ -485,7 +485,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -538,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Habitat of marine animals</t>
+          <t>Habitat of aquatic animals</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -677,7 +677,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -700,7 +700,7 @@
   <dimension ref="A1:AE20"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+      <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -857,7 +857,7 @@
       </c>
       <c r="Y1" s="2" t="inlineStr">
         <is>
-          <t>Q11 Marine Space Utilization Concern</t>
+          <t>Q11 Aquatic Space Utilization Concern</t>
         </is>
       </c>
       <c r="Z1" s="2" t="inlineStr">
@@ -3539,49 +3539,52 @@
   </sheetPr>
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="34.33203125" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Theme</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Subcriterion</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Expertise Level</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>PCM_Point Absorber_vs_Oscillating Water Column</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>PCM_Point Absorber_vs_Oscillating Surge Flap</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>PCM_Oscillating Water Column_vs_Oscillating Surge Flap</t>
         </is>
@@ -3673,7 +3676,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Habitat of marine animals</t>
+          <t>Habitat of aquatic animals</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -4042,7 +4045,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4076,7 +4079,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4183,7 +4186,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Habitat of marine animals</t>
+          <t>Habitat of aquatic animals</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -4552,7 +4555,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -4586,7 +4589,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4693,7 +4696,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Habitat of marine animals</t>
+          <t>Habitat of aquatic animals</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -5062,7 +5065,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5096,7 +5099,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -5203,7 +5206,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Habitat of marine animals</t>
+          <t>Habitat of aquatic animals</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -5572,7 +5575,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5606,7 +5609,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -5713,7 +5716,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Habitat of marine animals</t>
+          <t>Habitat of aquatic animals</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -6082,7 +6085,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -6116,7 +6119,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6223,7 +6226,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Habitat of marine animals</t>
+          <t>Habitat of aquatic animals</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -6592,7 +6595,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -6626,7 +6629,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -6733,7 +6736,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Habitat of marine animals</t>
+          <t>Habitat of aquatic animals</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -7102,7 +7105,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -7136,7 +7139,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -7170,91 +7173,91 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Community Prosperity - Community benefits</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Community Prosperity - Indirect economic effects</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Community Prosperity - Job opportunities</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Community Prosperity - Tax revenues</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Community Prosperity - Tourism</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Environmental Sustainability - Birds</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>Environmental Sustainability - Habitat of marine animals</t>
-        </is>
-      </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Environmental Sustainability - Habitat of aquatic animals</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Environmental Sustainability - Health</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Environmental Sustainability - Noise</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Functional Efficiency - Electricity affordability</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>Functional Efficiency - Electricity reliability and security</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
-        <is>
-          <t>Marine Space Utilization - Recreational boating</t>
-        </is>
-      </c>
-      <c r="N1" s="4" t="inlineStr">
-        <is>
-          <t>Marine Space Utilization - Recreational fishing</t>
-        </is>
-      </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Aquatic Space Utilization - Recreational boating</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>Aquatic Space Utilization - Recreational fishing</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>Sense of Place - Ocean / landscape view</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>Sense of Place - Personal identity / connection to place</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Point Absorber</t>
         </is>
@@ -7306,7 +7309,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Oscillating Water Column</t>
         </is>
@@ -7358,7 +7361,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Oscillating Wave Surge Flap</t>
         </is>
@@ -7431,22 +7434,22 @@
     <row r="1">
       <c r="B1" s="4" t="inlineStr">
         <is>
+          <t>Aquatic Space Utilization</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
           <t>Community Prosperity</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Environmental Sustainability</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Functional Efficiency</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Marine Space Utilization</t>
         </is>
       </c>
       <c r="F1" s="4" t="inlineStr">
@@ -7467,16 +7470,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.2086221890240418</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.20399855236885</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.2218236696748613</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.1806873257787938</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2086221890240418</v>
       </c>
       <c r="F2" t="n">
         <v>0.184868263153453</v>
@@ -7492,16 +7495,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.2856295270284697</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.2400337840978194</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.176199251594058</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.2050736868467214</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2856295270284697</v>
       </c>
       <c r="F3" t="n">
         <v>0.09306375043293148</v>
@@ -7517,16 +7520,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.125841312030266</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.1653567344365474</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.2000299585947696</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.2124521430816539</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.125841312030266</v>
       </c>
       <c r="F4" t="n">
         <v>0.2963198518567632</v>
@@ -7635,20 +7638,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Community Prosperity</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.474301969634494e-05</v>
+        <v>0.0007310476447187828</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008314372971867462</v>
+        <v>0.08132134349255424</v>
       </c>
       <c r="E2" t="n">
-        <v>2.448770941842486e-05</v>
+        <v>0.0009290025229905528</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005562429511171707</v>
+        <v>0.2110246802401013</v>
       </c>
     </row>
     <row r="3">
@@ -7659,20 +7662,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Environmental Sustainability</t>
+          <t>Community Prosperity</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.926694603582828e-05</v>
+        <v>7.474301969634494e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.006592822931791652</v>
+        <v>0.008314372971867462</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001160442045944265</v>
+        <v>2.448770941842486e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2635966056305831</v>
+        <v>0.005562429511171707</v>
       </c>
     </row>
     <row r="4">
@@ -7683,20 +7686,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Functional Efficiency</t>
+          <t>Environmental Sustainability</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.001908216715349371</v>
+        <v>5.926694603582828e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2122689924359903</v>
+        <v>0.006592822931791652</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.001160442045944265</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.2635966056305831</v>
       </c>
     </row>
     <row r="5">
@@ -7707,20 +7710,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Functional Efficiency</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0007310476447187828</v>
+        <v>0.001908216715349371</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08132134349255424</v>
+        <v>0.2122689924359903</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0009290025229905528</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2110246802401013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7755,7 +7758,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Community Prosperity</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -7765,10 +7768,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001847943977453212</v>
+        <v>0.003308255381109718</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05255327944320408</v>
+        <v>0.9408275988569278</v>
       </c>
     </row>
     <row r="8">
@@ -7779,20 +7782,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Environmental Sustainability</t>
+          <t>Community Prosperity</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.001744212018147474</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09036285804975018</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0001847943977453212</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.05255327944320407</v>
       </c>
     </row>
     <row r="9">
@@ -7803,20 +7806,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Functional Efficiency</t>
+          <t>Environmental Sustainability</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.001510000492715518</v>
+        <v>0.001744212018147474</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07822899897411927</v>
+        <v>0.09036285804975018</v>
       </c>
       <c r="E9" t="n">
-        <v>2.327498152521623e-05</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.006619121699868039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -7827,20 +7830,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Functional Efficiency</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.001510000492715518</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.07822899897411927</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003308255381109718</v>
+        <v>2.327498152521623e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9408275988569279</v>
+        <v>0.006619121699868038</v>
       </c>
     </row>
     <row r="11">
@@ -7875,14 +7878,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Community Prosperity</t>
+          <t>Aquatic Space Utilization</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0001847943977453212</v>
+        <v>0.003308255381109718</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05290345384253114</v>
+        <v>0.9470965461574689</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7899,20 +7902,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Environmental Sustainability</t>
+          <t>Community Prosperity</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>0.0001847943977453212</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.05290345384253114</v>
+      </c>
+      <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
         <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.001744212018147474</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.08853631021163225</v>
       </c>
     </row>
     <row r="14">
@@ -7923,7 +7926,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Functional Efficiency</t>
+          <t>Environmental Sustainability</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -7933,10 +7936,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001908216715349371</v>
+        <v>0.001744212018147474</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0968611988126488</v>
+        <v>0.08853631021163225</v>
       </c>
     </row>
     <row r="15">
@@ -7947,20 +7950,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Marine Space Utilization</t>
+          <t>Functional Efficiency</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.003308255381109718</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9470965461574689</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.001908216715349371</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.0968611988126488</v>
       </c>
     </row>
     <row r="16">
